--- a/Datos/Database by set/Set with text box/Xlsx sets/Aether Revolt Tokens (TAER).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Aether Revolt Tokens (TAER).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,84 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Etherium Cell</t>
+          <t>('Etherium Cell', ['Token Artifact', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Artifact</t>
+          <t>('Gremlin', ['Token Creature — Gremlin', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
+          <t>('Ragavan', ['Token Legendary Creature — Monkey', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gremlin</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Token Creature — Gremlin</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ragavan</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Token Legendary Creature — Monkey</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Tezzeret the Schemer Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Emblem — Tezzeret</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>At the beginning of combat on your turn, target artifact you control becomes an artifact creature with base power and toughness 5/5.</t>
+          <t>('Tezzeret the Schemer Emblem', ['Emblem — Tezzeret', 'At the beginning of combat on your turn, target artifact you control becomes an artifact creature with base power and toughness 5/5.'])</t>
         </is>
       </c>
     </row>
